--- a/report/Report-Customize Report-Crew List.xlsx
+++ b/report/Report-Customize Report-Crew List.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="OKT" sheetId="2" r:id="rId1"/>
-    <sheet name="Lembar1" sheetId="1" r:id="rId2"/>
+    <sheet name="CREW LIST" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OKT!$B$3:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CREW LIST'!$B$3:$J$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>CREW LIST 2020</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -97,6 +93,12 @@
   </si>
   <si>
     <t>${table:pandu.keterangan_sarana_bantu}</t>
+  </si>
+  <si>
+    <t>CREW LIST</t>
+  </si>
+  <si>
+    <t>${table:pandu.NO}</t>
   </si>
 </sst>
 </file>
@@ -182,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -222,76 +224,30 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -306,77 +262,44 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -389,118 +312,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -512,6 +411,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -826,128 +731,139 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="30" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="11"/>
-    <col min="11" max="11" width="9.1796875" style="10"/>
-    <col min="12" max="12" width="12.81640625" style="10" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" style="10"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="10"/>
-    <col min="17" max="17" width="16.08984375" style="10" customWidth="1"/>
-    <col min="18" max="18" width="21.36328125" style="10" customWidth="1"/>
-    <col min="19" max="22" width="9.1796875" style="10"/>
-    <col min="23" max="23" width="20.453125" style="10" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="5.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="3"/>
+    <col min="12" max="12" width="12.77734375" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.21875" style="3"/>
+    <col min="15" max="15" width="11.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="3"/>
+    <col min="17" max="17" width="16.109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" style="3" customWidth="1"/>
+    <col min="19" max="22" width="9.21875" style="3"/>
+    <col min="23" max="23" width="20.44140625" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="4"/>
-      <c r="J1" s="6"/>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -957,20 +873,9 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/report/Report-Customize Report-Crew List.xlsx
+++ b/report/Report-Customize Report-Crew List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="CREW LIST" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CREW LIST'!$B$3:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CREW LIST'!$B$4:$J$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>NO</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>${table:pandu.NO}</t>
+  </si>
+  <si>
+    <t>Cabang :</t>
+  </si>
+  <si>
+    <t>${table:cabang.cabang}</t>
   </si>
 </sst>
 </file>
@@ -108,13 +114,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,7 +312,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -307,99 +320,111 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -725,13 +750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,121 +784,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J4" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/report/Report-Customize Report-Crew List.xlsx
+++ b/report/Report-Customize Report-Crew List.xlsx
@@ -95,9 +95,6 @@
     <t>${table:pandu.keterangan_sarana_bantu}</t>
   </si>
   <si>
-    <t>CREW LIST</t>
-  </si>
-  <si>
     <t>${table:pandu.NO}</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>${table:cabang.cabang}</t>
+  </si>
+  <si>
+    <t>DAFTAR CREW</t>
   </si>
 </sst>
 </file>
@@ -363,6 +363,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,56 +393,38 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -756,7 +756,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,92 +784,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -892,7 +892,7 @@
       <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="11" t="s">

--- a/report/Report-Customize Report-Crew List.xlsx
+++ b/report/Report-Customize Report-Crew List.xlsx
@@ -15,7 +15,7 @@
     <sheet name="CREW LIST" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CREW LIST'!$B$4:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CREW LIST'!$B$3:$J$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -98,13 +98,7 @@
     <t>${table:pandu.NO}</t>
   </si>
   <si>
-    <t>Cabang :</t>
-  </si>
-  <si>
-    <t>${table:cabang.cabang}</t>
-  </si>
-  <si>
-    <t>DAFTAR CREW</t>
+    <t>DAFTAR CREW ${cabang}</t>
   </si>
 </sst>
 </file>
@@ -325,7 +319,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -374,9 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -750,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:J1"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,26 +775,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>21</v>
-      </c>
+    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -812,106 +799,95 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/report/Report-Customize Report-Crew List.xlsx
+++ b/report/Report-Customize Report-Crew List.xlsx
@@ -15,7 +15,7 @@
     <sheet name="CREW LIST" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CREW LIST'!$B$3:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CREW LIST'!$B$3:$I$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -65,9 +65,6 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>HANDPHONE</t>
-  </si>
-  <si>
     <t>${table:pandu.nama_asset}</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>${table:pandu.jabatan}</t>
-  </si>
-  <si>
-    <t>${table:pandu.nomor_hp}</t>
   </si>
   <si>
     <t>${table:pandu.manning}</t>
@@ -105,9 +99,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,96 +191,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -307,6 +208,84 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -319,7 +298,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -348,19 +327,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -372,49 +351,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,13 +711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,26 +727,25 @@
     <col min="3" max="3" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="3"/>
-    <col min="12" max="12" width="12.77734375" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.21875" style="3"/>
-    <col min="15" max="15" width="11.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="3"/>
-    <col min="17" max="17" width="16.109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" style="3" customWidth="1"/>
-    <col min="19" max="22" width="9.21875" style="3"/>
-    <col min="23" max="23" width="20.44140625" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="9.21875" style="3"/>
+    <col min="6" max="6" width="26.5546875" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="3"/>
+    <col min="11" max="11" width="12.77734375" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9.21875" style="3"/>
+    <col min="14" max="14" width="11.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="3"/>
+    <col min="16" max="16" width="16.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" style="3" customWidth="1"/>
+    <col min="18" max="21" width="9.21875" style="3"/>
+    <col min="22" max="22" width="20.44140625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -786,9 +755,8 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
@@ -797,10 +765,9 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -815,79 +782,71 @@
       <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
